--- a/Div/Oppgaver Vår 2021.xlsx
+++ b/Div/Oppgaver Vår 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/mattisch_ntnu_no/Documents/NTNU-DESKTOP-252I4KT/Div/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{02C88629-0CFC-41F0-BA69-4F134A576821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F532DFAA-1269-48DB-BB75-9C3314AB41F5}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{02C88629-0CFC-41F0-BA69-4F134A576821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78120392-9047-45AC-970D-527DF389DFD1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{593DD8BA-23C5-47EB-A9E2-46FA3187C93F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Dager igjen</t>
   </si>
@@ -95,6 +95,60 @@
   </si>
   <si>
     <t>KTN</t>
+  </si>
+  <si>
+    <t>Øving 1 Demo</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Øving 2</t>
+  </si>
+  <si>
+    <t>Øving 2 Demo</t>
+  </si>
+  <si>
+    <t>Øving 3</t>
+  </si>
+  <si>
+    <t>Øving 3 Demo</t>
+  </si>
+  <si>
+    <t>Øving 4</t>
+  </si>
+  <si>
+    <t>Øving 4 Demo</t>
+  </si>
+  <si>
+    <t>Øving 5</t>
+  </si>
+  <si>
+    <t>Øving 5 Demo</t>
+  </si>
+  <si>
+    <t>Øving 6</t>
+  </si>
+  <si>
+    <t>Øving 6 Demo</t>
+  </si>
+  <si>
+    <t>Øving 7</t>
+  </si>
+  <si>
+    <t>Øving7 Demo</t>
+  </si>
+  <si>
+    <t>Øving 8</t>
+  </si>
+  <si>
+    <t>usikkert</t>
+  </si>
+  <si>
+    <t>Parksisøving 2</t>
+  </si>
+  <si>
+    <t>Teoriøving 2</t>
   </si>
 </sst>
 </file>
@@ -843,10 +897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8433AB8B-2AEC-491A-B632-5933AF2CE2DC}">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +925,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1"/>
@@ -929,9 +983,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
+      <c r="B6" s="18" t="str">
         <f t="shared" ref="B6:B33" ca="1" si="0">IF(E6-$E$1&gt;=0,E6-$E$1,"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="C6" s="13" t="str" cm="1">
         <f t="array" ref="C6:G33">_xlfn._xlws.SORT(I6:M33,3,1,)</f>
@@ -944,7 +998,7 @@
         <v>44220</v>
       </c>
       <c r="F6" s="9" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G6" s="29">
         <v>0</v>
@@ -960,13 +1014,16 @@
       </c>
       <c r="L6" s="27" t="str">
         <f t="shared" ref="L6:L33" si="1">IF(N6="x","ferdig",IF(N6="y","snart ferdig",IF(K6&gt;0,"ikke ferdig","")))</f>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+      <c r="B7" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C7" s="7" t="str">
         <v>DISK</v>
@@ -978,7 +1035,7 @@
         <v>44223</v>
       </c>
       <c r="F7" s="38" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G7" s="29">
         <v>0</v>
@@ -994,13 +1051,16 @@
       </c>
       <c r="L7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+      <c r="B8" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C8" s="7" t="str">
         <v>OOP</v>
@@ -1012,7 +1072,7 @@
         <v>44225</v>
       </c>
       <c r="F8" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G8" s="29">
         <v>0</v>
@@ -1028,7 +1088,10 @@
       </c>
       <c r="L8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -1036,606 +1099,771 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
+      <c r="C9" s="7" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <v>Øving 2</v>
       </c>
       <c r="E9" s="34">
-        <v>0</v>
+        <v>44230</v>
       </c>
       <c r="F9" s="7" t="str">
-        <v/>
+        <v>ferdig</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="21">
+        <v>44232</v>
+      </c>
       <c r="L9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="19">
         <f ca="1">IF(E10-$E$1&gt;=0,E10-$E$1,"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <v>Øving 1 Demo</v>
       </c>
       <c r="E10" s="34">
-        <v>0</v>
+        <v>44232</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="21">
+        <v>44232</v>
+      </c>
       <c r="L10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
+      <c r="B11" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <v>Øving 2</v>
       </c>
       <c r="E11" s="34">
-        <v>0</v>
+        <v>44232</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G11" s="29">
         <v>0</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="21">
+        <v>44239</v>
+      </c>
       <c r="L11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
+      <c r="B12" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <v>KTN</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <v>Teoriøving 2</v>
       </c>
       <c r="E12" s="34">
-        <v>0</v>
+        <v>44234</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21">
+        <v>44239</v>
+      </c>
       <c r="L12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
+      <c r="B13" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <v>Øving 3</v>
       </c>
       <c r="E13" s="34">
-        <v>0</v>
+        <v>44237</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G13" s="29">
         <v>0</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="21">
+        <v>44245</v>
+      </c>
       <c r="L13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
+      <c r="B14" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <v>Øving 2 Demo</v>
       </c>
       <c r="E14" s="34">
-        <v>0</v>
+        <v>44239</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="K14" s="21"/>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="21">
+        <v>44260</v>
+      </c>
       <c r="L14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
+      <c r="B15" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <v>Øving 3</v>
       </c>
       <c r="E15" s="34">
-        <v>0</v>
+        <v>44239</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G15" s="29">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="22"/>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="22">
+        <v>44267</v>
+      </c>
       <c r="L15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ikke ferdig</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
+      <c r="B16" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <v>KTN</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <v>Parksisøving 2</v>
       </c>
       <c r="E16" s="34">
-        <v>0</v>
+        <v>44241</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G16" s="29">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="21">
+        <v>44267</v>
+      </c>
       <c r="L16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <v>Øving 4</v>
       </c>
       <c r="E17" s="34">
-        <v>0</v>
+        <v>44244</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="21">
+        <v>44267</v>
+      </c>
       <c r="L17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <v>Øving 3 Demo</v>
       </c>
       <c r="E18" s="34">
-        <v>0</v>
+        <v>44245</v>
       </c>
       <c r="F18" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G18" s="29">
         <v>0</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="22"/>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="22">
+        <v>44295</v>
+      </c>
       <c r="L18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <v>Øving 5</v>
       </c>
       <c r="E19" s="34">
-        <v>0</v>
+        <v>44251</v>
       </c>
       <c r="F19" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G19" s="29">
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="22"/>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="22">
+        <v>44302</v>
+      </c>
       <c r="L19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <v>Øving 6</v>
       </c>
       <c r="E20" s="34">
-        <v>0</v>
+        <v>44258</v>
       </c>
       <c r="F20" s="7" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G20" s="29">
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="21">
+        <v>44302</v>
+      </c>
       <c r="L20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <v>Øving 4</v>
       </c>
       <c r="E21" s="35">
-        <v>0</v>
+        <v>44260</v>
       </c>
       <c r="F21" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G21" s="29">
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="22"/>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="22">
+        <v>44309</v>
+      </c>
       <c r="L21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <v>Øving 7</v>
       </c>
       <c r="E22" s="35">
-        <v>0</v>
+        <v>44265</v>
       </c>
       <c r="F22" s="39" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G22" s="29">
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="K22" s="21"/>
+      <c r="I22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="21">
+        <v>44230</v>
+      </c>
       <c r="L22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <v>Øving 4 Demo</v>
       </c>
       <c r="E23" s="35">
-        <v>0</v>
+        <v>44267</v>
       </c>
       <c r="F23" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G23" s="29">
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="K23" s="21"/>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="21">
+        <v>44237</v>
+      </c>
       <c r="L23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <v>Øving 5</v>
       </c>
       <c r="E24" s="35">
-        <v>0</v>
+        <v>44267</v>
       </c>
       <c r="F24" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G24" s="29">
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="22"/>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="21">
+        <v>44244</v>
+      </c>
       <c r="L24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <v>Øving 5 Demo</v>
       </c>
       <c r="E25" s="35">
-        <v>0</v>
+        <v>44267</v>
       </c>
       <c r="F25" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G25" s="29">
         <v>0</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="21">
+        <v>44251</v>
+      </c>
       <c r="L25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <v>DISK</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <v>Øving 8</v>
       </c>
       <c r="E26" s="35">
-        <v>0</v>
+        <v>44272</v>
       </c>
       <c r="F26" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G26" s="29">
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="21">
+        <v>44258</v>
+      </c>
       <c r="L26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <v>Øving 6</v>
       </c>
       <c r="E27" s="35">
-        <v>0</v>
+        <v>44295</v>
       </c>
       <c r="F27" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G27" s="29">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="37"/>
+      <c r="I27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="21">
+        <v>44265</v>
+      </c>
       <c r="L27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <v>Øving 6 Demo</v>
       </c>
       <c r="E28" s="35">
-        <v>0</v>
+        <v>44302</v>
       </c>
       <c r="F28" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G28" s="29">
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="37"/>
+      <c r="I28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="21">
+        <v>44272</v>
+      </c>
       <c r="L28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <v>Øving 7</v>
       </c>
       <c r="E29" s="35">
-        <v>0</v>
+        <v>44302</v>
       </c>
       <c r="F29" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G29" s="29">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="37"/>
+      <c r="I29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="37">
+        <v>44241</v>
+      </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <v>OOP</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <v>Øving7 Demo</v>
       </c>
       <c r="E30" s="35">
-        <v>0</v>
+        <v>44309</v>
       </c>
       <c r="F30" s="9" t="str">
-        <v/>
+        <v>ikke ferdig</v>
       </c>
       <c r="G30" s="29">
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="37"/>
+      <c r="I30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="37">
+        <v>44234</v>
+      </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+        <v>ikke ferdig</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1663,7 +1891,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>

--- a/Div/Oppgaver Vår 2021.xlsx
+++ b/Div/Oppgaver Vår 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/mattisch_ntnu_no/Documents/NTNU-DESKTOP-252I4KT/Div/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{02C88629-0CFC-41F0-BA69-4F134A576821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78120392-9047-45AC-970D-527DF389DFD1}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{02C88629-0CFC-41F0-BA69-4F134A576821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E2DCDA8-E660-4074-B023-B5D797E17C43}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{593DD8BA-23C5-47EB-A9E2-46FA3187C93F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{593DD8BA-23C5-47EB-A9E2-46FA3187C93F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Dager igjen</t>
   </si>
@@ -442,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -483,6 +483,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,20 +503,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFB2B2B2"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -561,6 +548,20 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFB2B2B2"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -899,8 +900,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="B1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="98" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +926,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44231</v>
+        <v>44249</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1"/>
@@ -1125,13 +1126,16 @@
       </c>
       <c r="L9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+      <c r="B10" s="19" t="str">
         <f ca="1">IF(E10-$E$1&gt;=0,E10-$E$1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C10" s="7" t="str">
         <v>OOP</v>
@@ -1143,7 +1147,7 @@
         <v>44232</v>
       </c>
       <c r="F10" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G10" s="29">
         <v>0</v>
@@ -1159,13 +1163,16 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="B11" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C11" s="7" t="str">
         <v>OOP</v>
@@ -1177,7 +1184,7 @@
         <v>44232</v>
       </c>
       <c r="F11" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G11" s="29">
         <v>0</v>
@@ -1193,13 +1200,16 @@
       </c>
       <c r="L11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+      <c r="B12" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C12" s="7" t="str">
         <v>KTN</v>
@@ -1211,7 +1221,7 @@
         <v>44234</v>
       </c>
       <c r="F12" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
@@ -1227,13 +1237,16 @@
       </c>
       <c r="L12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+      <c r="B13" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C13" s="7" t="str">
         <v>DISK</v>
@@ -1245,7 +1258,7 @@
         <v>44237</v>
       </c>
       <c r="F13" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G13" s="29">
         <v>0</v>
@@ -1261,13 +1274,16 @@
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+      <c r="B14" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C14" s="7" t="str">
         <v>OOP</v>
@@ -1279,7 +1295,7 @@
         <v>44239</v>
       </c>
       <c r="F14" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
@@ -1299,9 +1315,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+      <c r="B15" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C15" s="7" t="str">
         <v>OOP</v>
@@ -1313,7 +1329,7 @@
         <v>44239</v>
       </c>
       <c r="F15" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G15" s="29">
         <v>0</v>
@@ -1333,9 +1349,9 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+      <c r="B16" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C16" s="7" t="str">
         <v>KTN</v>
@@ -1347,7 +1363,7 @@
         <v>44241</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G16" s="29">
         <v>0</v>
@@ -1367,21 +1383,21 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+      <c r="B17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="C17" s="7" t="str">
-        <v>DISK</v>
+        <v>OOP</v>
       </c>
       <c r="D17" s="8" t="str">
-        <v>Øving 4</v>
+        <v>Øving 3 Demo</v>
       </c>
       <c r="E17" s="34">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="F17" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -1403,19 +1419,19 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7" t="str">
-        <v>OOP</v>
+        <v>DISK</v>
       </c>
       <c r="D18" s="8" t="str">
-        <v>Øving 3 Demo</v>
+        <v>Øving 4</v>
       </c>
       <c r="E18" s="34">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="F18" s="7" t="str">
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
       </c>
       <c r="G18" s="29">
         <v>0</v>
@@ -1437,7 +1453,7 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7" t="str">
         <v>DISK</v>
@@ -1446,7 +1462,7 @@
         <v>Øving 5</v>
       </c>
       <c r="E19" s="34">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="F19" s="7" t="str">
         <v>ikke ferdig</v>
@@ -1471,16 +1487,16 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7" t="str">
-        <v>DISK</v>
+        <v>OOP</v>
       </c>
       <c r="D20" s="8" t="str">
-        <v>Øving 6</v>
+        <v>Øving 4</v>
       </c>
       <c r="E20" s="34">
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="F20" s="7" t="str">
         <v>ikke ferdig</v>
@@ -1505,16 +1521,16 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9" t="str">
-        <v>OOP</v>
+        <v>DISK</v>
       </c>
       <c r="D21" s="10" t="str">
-        <v>Øving 4</v>
+        <v>Øving 6</v>
       </c>
       <c r="E21" s="35">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="F21" s="9" t="str">
         <v>ikke ferdig</v>
@@ -1539,16 +1555,16 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C22" s="9" t="str">
-        <v>DISK</v>
+        <v>OOP</v>
       </c>
       <c r="D22" s="10" t="str">
-        <v>Øving 7</v>
+        <v>Øving 4 Demo</v>
       </c>
       <c r="E22" s="35">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="F22" s="39" t="str">
         <v>ikke ferdig</v>
@@ -1576,13 +1592,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9" t="str">
         <v>OOP</v>
       </c>
       <c r="D23" s="10" t="str">
-        <v>Øving 4 Demo</v>
+        <v>Øving 5</v>
       </c>
       <c r="E23" s="35">
         <v>44267</v>
@@ -1604,7 +1620,10 @@
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <v>ferdig</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
@@ -1613,13 +1632,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9" t="str">
         <v>OOP</v>
       </c>
       <c r="D24" s="10" t="str">
-        <v>Øving 5</v>
+        <v>Øving 5 Demo</v>
       </c>
       <c r="E24" s="35">
         <v>44267</v>
@@ -1630,18 +1649,14 @@
       <c r="G24" s="29">
         <v>0</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="21">
-        <v>44244</v>
-      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="21"/>
       <c r="L24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <f t="shared" ref="L24:L30" si="2">IF(N24="x","ferdig",IF(N24="y","snart ferdig",IF(K24&gt;0,"ikke ferdig","")))</f>
+        <v/>
       </c>
       <c r="O24" t="s">
         <v>28</v>
@@ -1650,16 +1665,16 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9" t="str">
-        <v>OOP</v>
+        <v>DISK</v>
       </c>
       <c r="D25" s="10" t="str">
-        <v>Øving 5 Demo</v>
+        <v>Øving 8</v>
       </c>
       <c r="E25" s="35">
-        <v>44267</v>
+        <v>44272</v>
       </c>
       <c r="F25" s="9" t="str">
         <v>ikke ferdig</v>
@@ -1671,14 +1686,17 @@
         <v>11</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K25" s="21">
         <v>44251</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <f t="shared" si="2"/>
+        <v>ferdig</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
@@ -1687,16 +1705,16 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C26" s="9" t="str">
-        <v>DISK</v>
+        <v>OOP</v>
       </c>
       <c r="D26" s="10" t="str">
-        <v>Øving 8</v>
+        <v>Øving 6</v>
       </c>
       <c r="E26" s="35">
-        <v>44272</v>
+        <v>44295</v>
       </c>
       <c r="F26" s="9" t="str">
         <v>ikke ferdig</v>
@@ -1708,13 +1726,13 @@
         <v>11</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" s="21">
         <v>44258</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ikke ferdig</v>
       </c>
       <c r="O26" t="s">
@@ -1724,16 +1742,16 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C27" s="9" t="str">
         <v>OOP</v>
       </c>
       <c r="D27" s="10" t="str">
-        <v>Øving 6</v>
+        <v>Øving 6 Demo</v>
       </c>
       <c r="E27" s="35">
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="F27" s="9" t="str">
         <v>ikke ferdig</v>
@@ -1745,13 +1763,13 @@
         <v>11</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K27" s="21">
         <v>44265</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ikke ferdig</v>
       </c>
       <c r="O27" t="s">
@@ -1761,13 +1779,13 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9" t="str">
         <v>OOP</v>
       </c>
       <c r="D28" s="10" t="str">
-        <v>Øving 6 Demo</v>
+        <v>Øving 7</v>
       </c>
       <c r="E28" s="35">
         <v>44302</v>
@@ -1788,7 +1806,7 @@
         <v>44272</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ikke ferdig</v>
       </c>
       <c r="O28" t="s">
@@ -1798,16 +1816,16 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C29" s="9" t="str">
         <v>OOP</v>
       </c>
       <c r="D29" s="10" t="str">
-        <v>Øving 7</v>
+        <v>Øving7 Demo</v>
       </c>
       <c r="E29" s="35">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="F29" s="9" t="str">
         <v>ikke ferdig</v>
@@ -1825,26 +1843,29 @@
         <v>44241</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <f t="shared" si="2"/>
+        <v>ferdig</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <v>OOP</v>
+      <c r="B30" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
       </c>
       <c r="D30" s="10" t="str">
-        <v>Øving7 Demo</v>
+        <v/>
       </c>
       <c r="E30" s="35">
-        <v>44309</v>
+        <v>0</v>
       </c>
       <c r="F30" s="9" t="str">
-        <v>ikke ferdig</v>
+        <v/>
       </c>
       <c r="G30" s="29">
         <v>0</v>
@@ -1859,8 +1880,11 @@
         <v>44234</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ikke ferdig</v>
+        <f t="shared" si="2"/>
+        <v>ferdig</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -1972,26 +1996,26 @@
     <cfRule type="expression" dxfId="8" priority="3">
       <formula>0=$C6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND($G6="i",$F6&lt;&gt;"ferdig")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>AND($G6="v",$F6&lt;&gt;"ferdig")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>"ferdig"=$F6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>$E$1&gt;$E6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>$E$1+2&gt;=$E6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
       <formula>$E$1+7&gt;$E6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$E$1+7&lt;=$E6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND($G6="i",$F6&lt;&gt;"ferdig")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($G6="v",$F6&lt;&gt;"ferdig")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F33">
